--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -38,6 +38,42 @@
     <t>Komax Alpha 355 / 355 S</t>
   </si>
   <si>
+    <t>24/01/2018</t>
+  </si>
+  <si>
+    <t>3012</t>
+  </si>
+  <si>
+    <t>456321789</t>
+  </si>
+  <si>
+    <t>789654</t>
+  </si>
+  <si>
+    <t>123456987456</t>
+  </si>
+  <si>
+    <t>123456987</t>
+  </si>
+  <si>
+    <t>не вірно визначений дефект</t>
+  </si>
+  <si>
+    <t>1212121212121</t>
+  </si>
+  <si>
+    <t>Рекваліфікація / EMPB</t>
+  </si>
+  <si>
+    <t>12365478</t>
+  </si>
+  <si>
+    <t>Не відповідне скручення проводів</t>
+  </si>
+  <si>
+    <t>569874</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -83,9 +119,6 @@
     <t>ПЗ Komax</t>
   </si>
   <si>
-    <t>Рекваліфікація / EMPB</t>
-  </si>
-  <si>
     <t>налаштування сканера</t>
   </si>
   <si>
@@ -117,9 +150,6 @@
   </si>
   <si>
     <t>заміна ножів</t>
-  </si>
-  <si>
-    <t>Не відповідне скручення проводів</t>
   </si>
   <si>
     <t>налаштування ножів</t>
@@ -256,15 +286,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <charset val="238"/>
       <family val="2"/>
@@ -277,6 +298,12 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -340,7 +367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -390,9 +417,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -407,7 +438,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -425,7 +456,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -434,38 +465,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -531,70 +536,59 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="2" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="13" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="11" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -602,36 +596,62 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="13" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="10" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="11" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -932,88 +952,352 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="2" width="21"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="2" width="34.85546875"/>
-    <col customWidth="1" max="5" min="4" style="2" width="23.7109375"/>
-    <col customWidth="1" max="6" min="6" style="13" width="23.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="13" width="22.5703125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="30" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="40" width="21"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="41" width="34.85546875"/>
+    <col customWidth="1" max="4" min="4" style="42" width="23.7109375"/>
+    <col customWidth="1" max="5" min="5" style="41" width="23.7109375"/>
+    <col customWidth="1" max="6" min="6" style="43" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="43" width="22.5703125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" s="13" spans="1:8">
-      <c r="A1" s="35" t="n">
+    <row customHeight="1" ht="26.25" r="1" s="43" spans="1:8">
+      <c r="A1" s="39" t="n">
         <v>80002222</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.45" r="2" s="13" spans="1:8">
-      <c r="A2" s="7" t="s">
+    <row customHeight="1" ht="29.45" r="2" s="43" spans="1:8">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="11" t="n"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="6" t="n"/>
+      <c r="G2" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10" t="n"/>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
-      <c r="F3" s="12" t="n"/>
-      <c r="G3" s="2" t="n"/>
-    </row>
-    <row r="4" spans="1:8"/>
-    <row r="5" spans="1:8"/>
-    <row r="6" spans="1:8"/>
-    <row r="7" spans="1:8"/>
-    <row r="8" spans="1:8"/>
-    <row r="9" spans="1:8"/>
-    <row r="10" spans="1:8"/>
-    <row r="11" spans="1:8"/>
-    <row r="12" spans="1:8"/>
-    <row r="13" spans="1:8"/>
-    <row r="14" spans="1:8"/>
-    <row r="15" spans="1:8"/>
-    <row r="16" spans="1:8"/>
-    <row r="17" spans="1:8"/>
-    <row r="18" spans="1:8"/>
-    <row r="19" spans="1:8"/>
-    <row r="20" spans="1:8"/>
-    <row r="21" spans="1:8"/>
-    <row r="22" spans="1:8"/>
-    <row r="23" spans="1:8"/>
-    <row r="24" spans="1:8"/>
-    <row r="25" spans="1:8"/>
-    <row r="26" spans="1:8"/>
-    <row r="27" spans="1:8"/>
+      <c r="B3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="32">
+        <f>D3-D2</f>
+        <v/>
+      </c>
+      <c r="F3" s="7" t="n"/>
+      <c r="G3" s="41" t="n"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="32">
+        <f>D4-D3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="32">
+        <f>D5-D4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="32">
+        <f>D6-D5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="32">
+        <f>D7-D6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="32">
+        <f>D8-D7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="32">
+        <f>D9-D8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="32">
+        <f>D10-D9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="E11" s="32">
+        <f>D11-D10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="E12" s="32">
+        <f>D12-D11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="E13" s="32">
+        <f>D13-D12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="E14" s="32">
+        <f>D14-D13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="E15" s="32">
+        <f>D15-D14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="E16" s="32">
+        <f>D16-D15</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="E17" s="32">
+        <f>D17-D16</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="E18" s="32">
+        <f>D18-D17</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="E19" s="32">
+        <f>D19-D18</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="E20" s="32">
+        <f>D20-D19</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="E21" s="32">
+        <f>D21-D20</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="E22" s="32">
+        <f>D22-D21</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="E23" s="32">
+        <f>D23-D22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="E24" s="32">
+        <f>D24-D23</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="E25" s="32">
+        <f>D25-D24</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="32">
+        <f>D26-D25</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="E27" s="32">
+        <f>D27-D26</f>
+        <v/>
+      </c>
+    </row>
     <row r="28" spans="1:8">
+      <c r="E28" s="32">
+        <f>D28-D27</f>
+        <v/>
+      </c>
       <c r="H28" s="1" t="n"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="E29" s="32">
+        <f>D29-D28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="E30" s="32">
+        <f>D30-D29</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="E31" s="32">
+        <f>D31-D30</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="E32" s="32">
+        <f>D32-D31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="E33" s="32">
+        <f>D33-D32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="E34" s="32">
+        <f>D34-D33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="E35" s="32">
+        <f>D35-D34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="E36" s="32">
+        <f>D36-D35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="E37" s="32">
+        <f>D37-D36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="E38" s="32">
+        <f>D38-D37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="E39" s="32">
+        <f>D39-D38</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1038,316 +1322,316 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="13" width="41.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="13" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="13" width="45.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="43" width="41.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="43" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="43" width="45.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="39" t="n"/>
-      <c r="E1" s="39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="13" spans="1:5" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>10</v>
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="44" t="n"/>
+      <c r="E1" s="44" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="43" spans="1:5" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>13</v>
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="A4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="29" t="s">
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="17" t="s">
+      <c r="D14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>35</v>
+      <c r="E14" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>37</v>
+      <c r="A15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="13" spans="1:5" thickBot="1">
-      <c r="A17" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>42</v>
+      <c r="A16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="43" spans="1:5" thickBot="1">
+      <c r="A17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="D18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>44</v>
+      <c r="D18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="D19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>45</v>
+      <c r="D19" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="D20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>46</v>
+      <c r="D20" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="D21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>47</v>
+      <c r="D21" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="D22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="13" spans="1:5" thickBot="1">
-      <c r="D23" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>49</v>
+      <c r="D22" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="43" spans="1:5" thickBot="1">
+      <c r="D23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="D24" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>51</v>
+      <c r="D24" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>52</v>
+      <c r="D25" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="D26" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="13" spans="1:5" thickBot="1">
-      <c r="D27" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>54</v>
+      <c r="D26" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="43" spans="1:5" thickBot="1">
+      <c r="D27" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="D28" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>56</v>
+      <c r="D28" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="D29" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>57</v>
+      <c r="D29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="D30" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>58</v>
+      <c r="D30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="D31" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>59</v>
+      <c r="D31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="D32" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" s="13" spans="1:5" thickBot="1">
-      <c r="D33" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>61</v>
+      <c r="D32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="43" spans="1:5" thickBot="1">
+      <c r="D33" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -74,6 +74,33 @@
     <t>569874</t>
   </si>
   <si>
+    <t>25/01/2018</t>
+  </si>
+  <si>
+    <t>Не вірна довжина проводу</t>
+  </si>
+  <si>
+    <t>3213135465468</t>
+  </si>
+  <si>
+    <t>30/01/2018</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Гострини на розрізі контакту</t>
+  </si>
+  <si>
+    <t>222222</t>
+  </si>
+  <si>
+    <t>89654123</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -83,9 +110,6 @@
     <t>розшифровка</t>
   </si>
   <si>
-    <t>Гострини на розрізі контакту</t>
-  </si>
-  <si>
     <t>Не симетричне / не відповідне закриття ядра</t>
   </si>
   <si>
@@ -126,9 +150,6 @@
   </si>
   <si>
     <t>збій роботи CPU 2000</t>
-  </si>
-  <si>
-    <t>Не вірна довжина проводу</t>
   </si>
   <si>
     <t>ТО обладнання</t>
@@ -1119,48 +1140,120 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="32">
         <f>D10-D9</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="32">
         <f>D11-D10</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
       <c r="E12" s="32">
         <f>D12-D11</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
       <c r="E13" s="32">
         <f>D13-D12</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="32">
         <f>D14-D13</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="32">
         <f>D15-D14</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
       <c r="E16" s="32">
         <f>D16-D15</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="32">
         <f>D17-D16</f>
         <v/>
@@ -1329,71 +1422,71 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="44" t="n"/>
       <c r="E1" s="44" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="43" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1401,65 +1494,65 @@
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1467,171 +1560,171 @@
         <v>17</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="43" spans="1:5" thickBot="1">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="43" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="43" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="43" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -101,6 +101,21 @@
     <t>89654123</t>
   </si>
   <si>
+    <t>2222</t>
+  </si>
+  <si>
+    <t>31/01/2018</t>
+  </si>
+  <si>
+    <t>123654789</t>
+  </si>
+  <si>
+    <t>інше</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
@@ -144,9 +159,6 @@
   </si>
   <si>
     <t>налаштування сканера</t>
-  </si>
-  <si>
-    <t>інше</t>
   </si>
   <si>
     <t>збій роботи CPU 2000</t>
@@ -1252,7 +1264,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="32">
         <f>D17-D16</f>
@@ -1260,30 +1281,81 @@
       </c>
     </row>
     <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
       <c r="E18" s="32">
         <f>D18-D17</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
       <c r="E19" s="32">
         <f>D19-D18</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
       <c r="E20" s="32">
         <f>D20-D19</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
       <c r="E21" s="32">
         <f>D21-D20</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
       <c r="E22" s="32">
         <f>D22-D21</f>
         <v/>
@@ -1422,11 +1494,11 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="44" t="n"/>
       <c r="E1" s="44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="43" spans="1:5" thickBot="1">
@@ -1436,57 +1508,57 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1494,21 +1566,21 @@
         <v>15</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1516,43 +1588,43 @@
         <v>20</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1560,171 +1632,171 @@
         <v>17</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="43" spans="1:5" thickBot="1">
       <c r="A17" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="43" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="43" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="43" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="240" yWindow="555" windowWidth="15975" windowHeight="9915"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -44,90 +44,87 @@
     <t>3012</t>
   </si>
   <si>
-    <t>456321789</t>
-  </si>
-  <si>
-    <t>789654</t>
-  </si>
-  <si>
-    <t>123456987456</t>
-  </si>
-  <si>
-    <t>123456987</t>
-  </si>
-  <si>
     <t>не вірно визначений дефект</t>
   </si>
   <si>
-    <t>1212121212121</t>
-  </si>
-  <si>
     <t>Рекваліфікація / EMPB</t>
   </si>
   <si>
-    <t>12365478</t>
-  </si>
-  <si>
     <t>Не відповідне скручення проводів</t>
   </si>
   <si>
-    <t>569874</t>
-  </si>
-  <si>
     <t>25/01/2018</t>
   </si>
   <si>
     <t>Не вірна довжина проводу</t>
   </si>
   <si>
-    <t>3213135465468</t>
-  </si>
-  <si>
     <t>30/01/2018</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Гострини на розрізі контакту</t>
   </si>
   <si>
-    <t>222222</t>
-  </si>
-  <si>
-    <t>89654123</t>
-  </si>
-  <si>
     <t>2222</t>
   </si>
   <si>
     <t>31/01/2018</t>
   </si>
   <si>
-    <t>123654789</t>
-  </si>
-  <si>
     <t>інше</t>
   </si>
   <si>
-    <t>123456</t>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>Зазубрини в місті відрізу контакту</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Пошкодження поверхні контакту</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>Асиметрія контакту</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>Не відповідне термоусадження</t>
+  </si>
+  <si>
+    <t>36</t>
   </si>
   <si>
     <t>**</t>
   </si>
   <si>
-    <t>Пошкодження поверхні контакту</t>
-  </si>
-  <si>
     <t>розшифровка</t>
   </si>
   <si>
-    <t>Не симетричне / не відповідне закриття ядра</t>
-  </si>
-  <si>
     <t>нарізка</t>
   </si>
   <si>
@@ -140,15 +137,9 @@
     <t>механічна поломка</t>
   </si>
   <si>
-    <t>Асиметрія контакту</t>
-  </si>
-  <si>
     <t>електрична поломка</t>
   </si>
   <si>
-    <t>Зазубрини в місті відрізу контакту</t>
-  </si>
-  <si>
     <t>людський фактор</t>
   </si>
   <si>
@@ -167,28 +158,16 @@
     <t>ТО обладнання</t>
   </si>
   <si>
-    <t>Не відповідне зварне з’єднання</t>
-  </si>
-  <si>
     <t>профілактика механічного вузла</t>
   </si>
   <si>
-    <t>Не відповідна сила стягування кабельбіндера</t>
-  </si>
-  <si>
     <t>налаштування втулочного модуля</t>
   </si>
   <si>
-    <t>Не відповідне термоусадження</t>
-  </si>
-  <si>
     <t>заміна ножів</t>
   </si>
   <si>
     <t>налаштування ножів</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Не відповідна обмотка з’єднання  </t>
   </si>
   <si>
     <t>заміна конвеєрнрої стрічки</t>
@@ -270,78 +249,77 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="9">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="20"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="10"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="238"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="9"/>
     </font>
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -354,13 +332,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1499984740745262"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,7 +361,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +373,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.7999816888943144"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,134 +543,135 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="11" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="8" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="5" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
-    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
-    <cellStyle builtinId="26" name="Хороший" xfId="2"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -980,37 +959,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="30" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="40" width="21"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="41" width="34.85546875"/>
-    <col customWidth="1" max="4" min="4" style="42" width="23.7109375"/>
-    <col customWidth="1" max="5" min="5" style="41" width="23.7109375"/>
-    <col customWidth="1" max="6" min="6" style="43" width="23.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="43" width="22.5703125"/>
+    <col min="1" max="1" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" style="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="39" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" s="43" spans="1:8">
-      <c r="A1" s="39" t="n">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1">
+      <c r="A1" s="40">
         <v>80002222</v>
       </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.45" r="2" s="43" spans="1:8">
+    <row r="2" spans="1:7" ht="29.45" customHeight="1">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -1026,75 +1006,75 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6" t="n"/>
-      <c r="G2" s="45" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="n"/>
-      <c r="D3" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="32">
-        <f>D3-D2</f>
-        <v/>
-      </c>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="41" t="n"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="B3" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="38">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31" t="e">
+        <f t="shared" ref="E3:E39" si="0">D3-D2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="32">
-        <f>D4-D3</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="41" t="s">
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="38">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="32">
-        <f>D5-D4</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="B5" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="32">
+        <v>3</v>
+      </c>
+      <c r="E5" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="32">
-        <f>D6-D5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1102,17 +1082,17 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="32">
-        <f>D7-D6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1120,17 +1100,17 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="32">
-        <f>D8-D7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1138,665 +1118,828 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="32">
-        <f>D9-D8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="32">
-        <f>D10-D9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="32">
-        <f>D11-D10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="32">
-        <f>D12-D11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="32">
-        <f>D13-D12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="32">
-        <f>D14-D13</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="32">
-        <f>D15-D14</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="32">
-        <f>D16-D15</f>
-        <v/>
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="32">
-        <f>D17-D16</f>
-        <v/>
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="32">
-        <f>D18-D17</f>
-        <v/>
+        <v>16</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="32">
-        <f>D19-D18</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="32">
-        <f>D20-D19</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="32">
-        <f>D21-D20</f>
-        <v/>
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="32">
-        <f>D22-D21</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="E23" s="32">
-        <f>D23-D22</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="E24" s="32">
-        <f>D24-D23</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="E25" s="32">
-        <f>D25-D24</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="E26" s="32">
-        <f>D26-D25</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="E27" s="32">
-        <f>D27-D26</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="E28" s="32">
-        <f>D28-D27</f>
-        <v/>
-      </c>
-      <c r="H28" s="1" t="n"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="E29" s="32">
-        <f>D29-D28</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="E30" s="32">
-        <f>D30-D29</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="E31" s="32">
-        <f>D31-D30</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="E32" s="32">
-        <f>D32-D31</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="E33" s="32">
-        <f>D33-D32</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="E34" s="32">
-        <f>D34-D33</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="E35" s="32">
-        <f>D35-D34</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="E36" s="32">
-        <f>D36-D35</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="E37" s="32">
-        <f>D37-D36</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="E38" s="32">
-        <f>D38-D37</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="E39" s="32">
-        <f>D39-D38</f>
-        <v/>
+      <c r="E37" s="31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="31">
+        <f t="shared" si="0"/>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="E39" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="43" width="41.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="43" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="43" width="45.42578125"/>
+    <col min="1" max="1" width="41.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" style="39" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="44" t="n"/>
-      <c r="E1" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45" t="s">
         <v>35</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="43" spans="1:5" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>39</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="20" t="s">
+    </row>
+    <row r="10" spans="1:5">
+      <c r="D10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="20" t="s">
+    <row r="11" spans="1:5">
+      <c r="D11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="20" t="s">
+    <row r="12" spans="1:5">
+      <c r="D12" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="20" t="s">
+    <row r="13" spans="1:5">
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="8" t="s">
+    <row r="14" spans="1:5">
+      <c r="D14" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="20" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="20" t="s">
+    <row r="16" spans="1:5">
+      <c r="D16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="20" t="s">
+    <row r="17" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D17" s="13" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="12" t="s">
+      <c r="E17" s="22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
+    <row r="18" spans="4:5">
+      <c r="D18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8" t="s">
+    <row r="19" spans="4:5">
+      <c r="D19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="20" t="s">
+    </row>
+    <row r="20" spans="4:5">
+      <c r="D20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="17" s="43" spans="1:5" thickBot="1">
-      <c r="A17" s="9" t="s">
+    <row r="21" spans="4:5">
+      <c r="D21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="13" t="s">
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="22" t="s">
+    </row>
+    <row r="23" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D23" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="D18" s="14" t="s">
+    <row r="24" spans="4:5">
+      <c r="D24" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="D19" s="15" t="s">
+    <row r="25" spans="4:5">
+      <c r="D25" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="D20" s="15" t="s">
+    <row r="26" spans="4:5">
+      <c r="D26" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E26" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="D21" s="15" t="s">
+    <row r="27" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D27" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E27" s="22" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="D22" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="20" t="s">
+    <row r="28" spans="4:5">
+      <c r="D28" s="23" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="43" spans="1:5" thickBot="1">
-      <c r="D23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="22" t="s">
+      <c r="E28" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="D24" s="17" t="s">
+    <row r="29" spans="4:5">
+      <c r="D29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="18" t="s">
+    </row>
+    <row r="30" spans="4:5">
+      <c r="D30" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="D25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="20" t="s">
+    <row r="31" spans="4:5">
+      <c r="D31" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="D26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="20" t="s">
+    <row r="32" spans="4:5">
+      <c r="D32" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="27" s="43" spans="1:5" thickBot="1">
-      <c r="D27" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="22" t="s">
+    <row r="33" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+      <c r="D33" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="D28" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="D30" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="D31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="D32" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" s="43" spans="1:5" thickBot="1">
-      <c r="D33" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1804,6 +1947,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="555" windowWidth="15975" windowHeight="9915"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -119,21 +119,30 @@
     <t>36</t>
   </si>
   <si>
+    <t>Не відповідне зварне з’єднання</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>**</t>
   </si>
   <si>
     <t>розшифровка</t>
   </si>
   <si>
+    <t>Пошкодження контакту або його деформація</t>
+  </si>
+  <si>
+    <t>Пошкодження проводу або ущільнення</t>
+  </si>
+  <si>
     <t>нарізка</t>
   </si>
   <si>
     <t>проблеми з матеріалом</t>
   </si>
   <si>
-    <t>Пошкодження контакту або його деформація</t>
-  </si>
-  <si>
     <t>механічна поломка</t>
   </si>
   <si>
@@ -143,12 +152,15 @@
     <t>людський фактор</t>
   </si>
   <si>
-    <t>Пошкодження проводу або ущільнення</t>
+    <t>Тріснута запчастина</t>
   </si>
   <si>
     <t>ПЗ Komax</t>
   </si>
   <si>
+    <t>Обладнання не вмикається / не продукує виріб</t>
+  </si>
+  <si>
     <t>налаштування сканера</t>
   </si>
   <si>
@@ -173,13 +185,7 @@
     <t>заміна конвеєрнрої стрічки</t>
   </si>
   <si>
-    <t>Тріснута запчастина</t>
-  </si>
-  <si>
     <t>заміна ременів проводопротягувача</t>
-  </si>
-  <si>
-    <t>Обладнання не вмикається / не продукує виріб</t>
   </si>
   <si>
     <t>принтер</t>
@@ -249,77 +255,78 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <i val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="20"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="238"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -332,13 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.1499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +380,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="3" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,135 +550,134 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="8" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="9" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="11" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="8" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="11" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="1" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="1" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle builtinId="8" name="Гиперссылка" xfId="1"/>
+    <cellStyle builtinId="26" name="Хороший" xfId="2"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -959,38 +965,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.85546875" style="37" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="39" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="30" width="10.5703125"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="41" width="21"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="42" width="34.85546875"/>
+    <col customWidth="1" max="4" min="4" style="43" width="23.7109375"/>
+    <col customWidth="1" max="5" min="5" style="42" width="23.7109375"/>
+    <col customWidth="1" max="6" min="6" style="44" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="44" width="22.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A1" s="40">
+    <row customHeight="1" ht="26.25" r="1" s="44" spans="1:8">
+      <c r="A1" s="40" t="n">
         <v>80002222</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="44"/>
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="29.45" customHeight="1">
+    <row customHeight="1" ht="29.45" r="2" s="44" spans="1:8">
       <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
@@ -1006,75 +1011,75 @@
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="n"/>
       <c r="G2" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="38">
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="31" t="e">
-        <f t="shared" ref="E3:E39" si="0">D3-D2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="37"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="31">
+        <f>D3-D2</f>
+        <v/>
+      </c>
+      <c r="F3" s="7" t="n"/>
+      <c r="G3" s="42" t="n"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="43" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+        <f>D4-D3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="42" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="32" t="n">
         <v>3</v>
       </c>
       <c r="E5" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f>D5-D4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <f>D6-D5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1084,15 +1089,15 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>5</v>
       </c>
       <c r="E7" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <f>D7-D6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1102,15 +1107,15 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>6</v>
       </c>
       <c r="E8" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <f>D8-D7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1120,15 +1125,15 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>7</v>
       </c>
       <c r="E9" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <f>D9-D8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1138,75 +1143,75 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>8</v>
       </c>
       <c r="E10" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <f>D10-D9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
       <c r="E11" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f>D11-D10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>10</v>
       </c>
       <c r="E12" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <f>D12-D11</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>11</v>
       </c>
       <c r="E13" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f>D13-D12</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>12</v>
       </c>
       <c r="E14" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <f>D14-D13</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1216,15 +1221,15 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>13</v>
       </c>
       <c r="E15" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <f>D15-D14</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1234,12 +1239,12 @@
       <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>14</v>
       </c>
       <c r="E16" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D16-D15</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1252,12 +1257,12 @@
       <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>15</v>
       </c>
       <c r="E17" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D17-D16</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1270,12 +1275,12 @@
       <c r="C18" t="s">
         <v>16</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>16</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D18-D17</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1288,12 +1293,12 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>17</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D19-D18</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1306,12 +1311,12 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>18</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D20-D19</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1324,12 +1329,12 @@
       <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>19</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D21-D20</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1342,12 +1347,12 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>20</v>
       </c>
       <c r="E22" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D22-D21</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1364,8 +1369,8 @@
         <v>22</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>D23-D22</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1382,8 +1387,8 @@
         <v>23</v>
       </c>
       <c r="E24" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D24-D23</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1396,12 +1401,12 @@
       <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D25-D24</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1414,12 +1419,12 @@
       <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D26-D25</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1436,8 +1441,8 @@
         <v>25</v>
       </c>
       <c r="E27" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D27-D26</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1454,10 +1459,10 @@
         <v>26</v>
       </c>
       <c r="E28" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H28" s="1"/>
+        <f>D28-D27</f>
+        <v/>
+      </c>
+      <c r="H28" s="1" t="n"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
@@ -1473,8 +1478,8 @@
         <v>27</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D29-D28</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1487,12 +1492,12 @@
       <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D30-D29</f>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1505,12 +1510,12 @@
       <c r="C31" t="s">
         <v>24</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>D31-D30</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1523,15 +1528,15 @@
       <c r="C32" t="s">
         <v>24</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <f>D32-D31</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1541,15 +1546,15 @@
       <c r="C33" t="s">
         <v>24</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <f>D33-D32</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1563,11 +1568,11 @@
         <v>28</v>
       </c>
       <c r="E34" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <f>D34-D33</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1581,11 +1586,11 @@
         <v>30</v>
       </c>
       <c r="E35" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <f>D35-D34</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1599,11 +1604,11 @@
         <v>31</v>
       </c>
       <c r="E36" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <f>D36-D35</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1617,74 +1622,88 @@
         <v>33</v>
       </c>
       <c r="E37" s="31">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <f>D37-D36</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
         <v>34</v>
       </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
       <c r="E38" s="31">
-        <f t="shared" si="0"/>
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <f>D38-D37</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
       <c r="E39" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>D39-D38</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="44" width="41.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="44" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="44" width="45.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="45"/>
+      <c r="D1" s="45" t="n"/>
       <c r="E1" s="45" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="44" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1692,10 +1711,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1703,10 +1722,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1714,232 +1733,232 @@
         <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="44" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="D20" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="44" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E25" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="D26" s="19" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="E26" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="44" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="4:5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="4:5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="D30" s="24" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="4:5">
-      <c r="D30" s="24" t="s">
-        <v>69</v>
-      </c>
       <c r="E30" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="4:5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" ht="15.75" customHeight="1" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="44" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1947,6 +1966,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>37</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>1334</t>
   </si>
   <si>
     <t>**</t>
@@ -970,10 +985,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1648,8 +1663,224 @@
       <c r="A39" t="s">
         <v>36</v>
       </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" t="s">
+        <v>37</v>
+      </c>
       <c r="E39" s="31">
         <f>D39-D38</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" t="n">
+        <v>98</v>
+      </c>
+      <c r="E40" s="31">
+        <f>D40-D39</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="n">
+        <v>99</v>
+      </c>
+      <c r="E41" s="31">
+        <f>D41-D40</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="31">
+        <f>D42-D41</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="31">
+        <f>D43-D42</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="31">
+        <f>D44-D43</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="31">
+        <f>D45-D44</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="E46" s="31">
+        <f>D46-D45</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="E47" s="31">
+        <f>D47-D46</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="E48" s="31">
+        <f>D48-D47</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="E49" s="31">
+        <f>D49-D48</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="E50" s="31">
+        <f>D50-D49</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="E51" s="31">
+        <f>D51-D50</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="E52" s="31">
+        <f>D52-D51</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="E53" s="31">
+        <f>D53-D52</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="E54" s="31">
+        <f>D54-D53</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="E55" s="31">
+        <f>D55-D54</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="E56" s="31">
+        <f>D56-D55</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="E57" s="31">
+        <f>D57-D56</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="E58" s="31">
+        <f>D58-D57</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="E59" s="31">
+        <f>D59-D58</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="E60" s="31">
+        <f>D60-D59</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="E61" s="31">
+        <f>D61-D60</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="E62" s="31">
+        <f>D62-D61</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="E63" s="31">
+        <f>D63-D62</f>
         <v/>
       </c>
     </row>
@@ -1687,23 +1918,23 @@
       </c>
       <c r="D1" s="45" t="n"/>
       <c r="E1" s="45" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="44" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1711,10 +1942,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1722,10 +1953,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1733,232 +1964,232 @@
         <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
-      </c>
       <c r="E7" s="20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="44" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="44" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="44" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="44" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>тип обладнання</t>
   </si>
   <si>
+    <t>середне значення циклів між замінами</t>
+  </si>
+  <si>
     <t>дата</t>
   </si>
   <si>
@@ -138,6 +141,15 @@
   </si>
   <si>
     <t>1334</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>1335</t>
+  </si>
+  <si>
+    <t>1336</t>
   </si>
   <si>
     <t>**</t>
@@ -569,7 +581,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
     <xf borderId="0" fillId="6" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
@@ -684,6 +696,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -987,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1000,6 +1015,7 @@
     <col customWidth="1" max="5" min="5" style="42" width="23.7109375"/>
     <col customWidth="1" max="6" min="6" style="44" width="23.7109375"/>
     <col bestFit="1" customWidth="1" max="7" min="7" style="44" width="22.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="44" width="15.28515625"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="26.25" r="1" s="44" spans="1:8">
@@ -1009,34 +1025,40 @@
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row customHeight="1" ht="29.45" r="2" s="44" spans="1:8">
       <c r="A2" s="28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="35" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="H2" s="46" t="n">
+        <v>150000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="43" t="n">
@@ -1051,10 +1073,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="43" t="n">
         <v>2</v>
@@ -1066,10 +1088,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>3</v>
@@ -1081,10 +1103,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -1096,13 +1118,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
         <v>5</v>
@@ -1114,13 +1136,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>6</v>
@@ -1132,13 +1154,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
         <v>7</v>
@@ -1150,13 +1172,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -1168,10 +1190,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
         <v>9</v>
@@ -1183,10 +1205,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
@@ -1198,10 +1220,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>11</v>
@@ -1213,10 +1235,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>12</v>
@@ -1228,13 +1250,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" t="n">
         <v>13</v>
@@ -1246,13 +1268,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" t="n">
         <v>14</v>
@@ -1264,13 +1286,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
-      </c>
-      <c r="C17" t="s">
-        <v>16</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
@@ -1282,13 +1304,13 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" t="n">
         <v>16</v>
@@ -1300,13 +1322,13 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>17</v>
@@ -1318,13 +1340,13 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="n">
         <v>18</v>
@@ -1336,13 +1358,13 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="n">
         <v>19</v>
@@ -1354,13 +1376,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D22" t="n">
         <v>20</v>
@@ -1372,16 +1394,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23" s="31">
         <f>D23-D22</f>
@@ -1390,16 +1412,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24" s="31">
         <f>D24-D23</f>
@@ -1408,13 +1430,13 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
         <v>24</v>
@@ -1426,13 +1448,13 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" t="n">
         <v>25</v>
@@ -1444,16 +1466,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="31">
         <f>D27-D26</f>
@@ -1462,16 +1484,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E28" s="31">
         <f>D28-D27</f>
@@ -1481,16 +1503,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E29" s="31">
         <f>D29-D28</f>
@@ -1499,13 +1521,13 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="n">
         <v>29</v>
@@ -1517,13 +1539,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D31" t="n">
         <v>30</v>
@@ -1535,13 +1557,13 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D32" t="n">
         <v>31</v>
@@ -1553,13 +1575,13 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
         <v>32</v>
@@ -1571,16 +1593,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E34" s="31">
         <f>D34-D33</f>
@@ -1589,16 +1611,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" s="31">
         <f>D35-D34</f>
@@ -1607,16 +1629,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E36" s="31">
         <f>D36-D35</f>
@@ -1625,16 +1647,16 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E37" s="31">
         <f>D37-D36</f>
@@ -1643,16 +1665,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E38" s="31">
         <f>D38-D37</f>
@@ -1661,16 +1683,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" s="31">
         <f>D39-D38</f>
@@ -1679,13 +1701,13 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
         <v>98</v>
@@ -1697,13 +1719,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D41" t="n">
         <v>99</v>
@@ -1715,16 +1737,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E42" s="31">
         <f>D42-D41</f>
@@ -1733,16 +1755,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E43" s="31">
         <f>D43-D42</f>
@@ -1751,16 +1773,16 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E44" s="31">
         <f>D44-D43</f>
@@ -1769,7 +1791,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
       </c>
       <c r="E45" s="31">
         <f>D45-D44</f>
@@ -1777,12 +1808,27 @@
       </c>
     </row>
     <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
       <c r="E46" s="31">
         <f>D46-D45</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
       <c r="E47" s="31">
         <f>D47-D46</f>
         <v/>
@@ -1914,282 +1960,282 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="45" t="n"/>
       <c r="E1" s="45" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="44" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="44" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="44" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="44" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="44" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/eq_log/80002222.xlsx
+++ b/eq_log/80002222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>тип обладнання</t>
   </si>
@@ -32,7 +32,7 @@
     <t>причина дефекту/невідповідності</t>
   </si>
   <si>
-    <t>кількість ударів при заміні аплікатора</t>
+    <t>кількість циклів при заміні запчастин</t>
   </si>
   <si>
     <t>різниця циклів між замінами</t>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>1336</t>
+  </si>
+  <si>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>1337</t>
   </si>
   <si>
     <t>**</t>
@@ -684,6 +690,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="3" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -696,9 +705,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="7" fillId="6" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="3" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1003,23 +1009,23 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="30" width="10.5703125"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="41" width="21"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="42" width="34.85546875"/>
-    <col customWidth="1" max="4" min="4" style="43" width="23.7109375"/>
-    <col customWidth="1" max="5" min="5" style="42" width="23.7109375"/>
-    <col customWidth="1" max="6" min="6" style="44" width="23.7109375"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="44" width="22.5703125"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="44" width="15.28515625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="42" width="21"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="43" width="34.85546875"/>
+    <col customWidth="1" max="4" min="4" style="44" width="23.7109375"/>
+    <col customWidth="1" max="5" min="5" style="43" width="23.7109375"/>
+    <col customWidth="1" max="6" min="6" style="45" width="23.7109375"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="45" width="22.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="45" width="15.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="26.25" r="1" s="44" spans="1:8">
-      <c r="A1" s="40" t="n">
+    <row customHeight="1" ht="26.25" r="1" s="45" spans="1:8">
+      <c r="A1" s="41" t="n">
         <v>80002222</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -1029,7 +1035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.45" r="2" s="44" spans="1:8">
+    <row customHeight="1" ht="29.45" r="2" s="45" spans="1:8">
       <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1055,7 @@
       <c r="G2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="46" t="n">
+      <c r="H2" s="40" t="n">
         <v>150000</v>
       </c>
     </row>
@@ -1061,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="n"/>
-      <c r="D3" s="43" t="n">
+      <c r="D3" s="44" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="31">
@@ -1069,7 +1075,7 @@
         <v/>
       </c>
       <c r="F3" s="7" t="n"/>
-      <c r="G3" s="42" t="n"/>
+      <c r="G3" s="43" t="n"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
@@ -1078,7 +1084,7 @@
       <c r="B4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="43" t="n">
+      <c r="D4" s="44" t="n">
         <v>2</v>
       </c>
       <c r="E4" s="31">
@@ -1087,7 +1093,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="34" t="s">
@@ -1829,12 +1835,24 @@
       <c r="A47" t="s">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
       <c r="E47" s="31">
         <f>D47-D46</f>
         <v/>
       </c>
     </row>
     <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
       <c r="E48" s="31">
         <f>D48-D47</f>
         <v/>
@@ -1953,34 +1971,34 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="44" width="41.5703125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="44" width="13.42578125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="44" width="45.42578125"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="45" width="41.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="45" width="13.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="45" width="45.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="45" t="n"/>
-      <c r="E1" s="45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="44" spans="1:5" thickBot="1">
+      <c r="D1" s="46" t="n"/>
+      <c r="E1" s="46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="45" spans="1:5" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1988,10 +2006,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1999,10 +2017,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2010,232 +2028,232 @@
         <v>14</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="D9" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="D11" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="D12" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="D13" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="D14" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="D15" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="44" spans="1:5" thickBot="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="45" spans="1:5" thickBot="1">
       <c r="D17" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="D18" s="14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="D19" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="D20" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="D21" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="D22" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="44" spans="1:5" thickBot="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="45" spans="1:5" thickBot="1">
       <c r="D23" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="D24" s="17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="D25" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="D26" s="19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="44" spans="1:5" thickBot="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="45" spans="1:5" thickBot="1">
       <c r="D27" s="21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="D28" s="23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="D29" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="D30" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="D31" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="D32" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" s="44" spans="1:5" thickBot="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="45" spans="1:5" thickBot="1">
       <c r="D33" s="25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
